--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1087040.275286794</v>
+        <v>1082143.038698847</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737297</v>
+        <v>8186089.907737294</v>
       </c>
     </row>
     <row r="9">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>210.4523473498473</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>17.80756311007424</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.6370840092685</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.9848119816685</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1466,7 +1466,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
-        <v>153.1433946664671</v>
+        <v>35.26193722440519</v>
       </c>
       <c r="U12" t="n">
         <v>195.3021387078687</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -1536,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>74.12777145960861</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.929794434183</v>
       </c>
       <c r="T13" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>242.6983209364402</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>154.4160042839553</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>32.06857741426579</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
         <v>59.00565898536429</v>
@@ -1742,7 +1742,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U15" t="n">
-        <v>185.7581009809247</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>23.00562176534975</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>36.24186934482162</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>167.8355178356165</v>
@@ -1821,16 +1821,16 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>45.35216945679051</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>195.8379717949161</v>
       </c>
     </row>
     <row r="18">
@@ -1925,10 +1925,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>14.77366309648276</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -1937,7 +1937,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H18" t="n">
         <v>59.00565898536429</v>
@@ -1991,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>28.97601446526956</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2010,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>26.67266081855767</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>162.0411041880724</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>25.08800571068835</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>91.46964733053944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T21" t="n">
-        <v>153.1433946664671</v>
+        <v>132.1817501112489</v>
       </c>
       <c r="U21" t="n">
         <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
-        <v>36.97042707739834</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2244,10 +2244,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0607131231338</v>
+        <v>157.437509412005</v>
       </c>
       <c r="U22" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
-        <v>116.733848818506</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>248.6757302241152</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T23" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>91.98789004652798</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>94.89361138383856</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T25" t="n">
-        <v>42.3239919559686</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
         <v>279.9179208068699</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>13.10623450007304</v>
       </c>
       <c r="U26" t="n">
-        <v>131.779254105048</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9179208068699</v>
+        <v>23.04158101550372</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.89379585742277</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
-        <v>254.319061736559</v>
+        <v>156.0444617367957</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>264.0061848222489</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>133.1679626739138</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>74.74370774124181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.5760172510347</v>
+        <v>239.8094847616848</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>111.3338820000419</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>76.37895211254062</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>167.8355178356165</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>102.5032260622499</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>20.02329417053281</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>48.99448256262307</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276269</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>18.12219966782395</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>102.7846856224997</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T38" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>382.0135723302194</v>
       </c>
       <c r="Y38" t="n">
-        <v>327.0155094612381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>153.1433946664671</v>
+        <v>64.22820433890475</v>
       </c>
       <c r="U39" t="n">
         <v>195.3021387078687</v>
@@ -3644,10 +3644,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.0595739640329</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>167.8355178356165</v>
@@ -3720,16 +3720,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
-        <v>108.5157864012774</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>71.13973757081449</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>262.7413158942776</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>246.4361216642805</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>153.1433946664671</v>
@@ -3881,13 +3881,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>122.1856462534715</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.7666774228059</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.9960747283841</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>57.04249667437701</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>329.1139743248643</v>
+        <v>119.7441928515305</v>
       </c>
       <c r="H44" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -4070,10 +4070,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276089</v>
       </c>
       <c r="T45" t="n">
         <v>153.1433946664671</v>
       </c>
       <c r="U45" t="n">
-        <v>100.5924973722365</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>137.7592713134155</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>63.82225133005685</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
         <v>139.5954175304433</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>167.8355178356165</v>
@@ -4191,10 +4191,10 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1488.153676578333</v>
+        <v>1173.348120914015</v>
       </c>
       <c r="C11" t="n">
-        <v>1275.575547942124</v>
+        <v>1173.348120914015</v>
       </c>
       <c r="D11" t="n">
-        <v>871.1116180351842</v>
+        <v>1173.348120914015</v>
       </c>
       <c r="E11" t="n">
-        <v>456.7714025520808</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="F11" t="n">
-        <v>35.74099050576839</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="G11" t="n">
-        <v>35.74099050576839</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="J11" t="n">
         <v>142.5703854689898</v>
@@ -5047,46 +5047,46 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152968</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189817</v>
       </c>
       <c r="P11" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824116</v>
       </c>
       <c r="R11" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S11" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T11" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="U11" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="V11" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="W11" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="X11" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="Y11" t="n">
-        <v>1488.153676578333</v>
+        <v>1173.348120914015</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.9219942215105</v>
+        <v>564.6265121836952</v>
       </c>
       <c r="C12" t="n">
-        <v>487.9269229704562</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="D12" t="n">
-        <v>371.0297651898487</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E12" t="n">
-        <v>250.5369491821766</v>
+        <v>310.1386249249688</v>
       </c>
       <c r="F12" t="n">
-        <v>141.5770693646812</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G12" t="n">
-        <v>35.74099050576839</v>
+        <v>95.34266624856058</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="I12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="J12" t="n">
-        <v>335.4150222482922</v>
+        <v>91.74661827365897</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7902645623569</v>
+        <v>399.372862880625</v>
       </c>
       <c r="L12" t="n">
-        <v>652.8226261026791</v>
+        <v>841.6676203895084</v>
       </c>
       <c r="M12" t="n">
-        <v>882.4209603825697</v>
+        <v>1071.265954669399</v>
       </c>
       <c r="N12" t="n">
-        <v>1123.931580570561</v>
+        <v>1312.77657485739</v>
       </c>
       <c r="O12" t="n">
-        <v>1524.712592344458</v>
+        <v>1524.712592344457</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.980039158656</v>
+        <v>1686.980039158655</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.234255540019</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R12" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.495187579392</v>
       </c>
       <c r="T12" t="n">
-        <v>1632.359227645523</v>
+        <v>1664.877069170902</v>
       </c>
       <c r="U12" t="n">
-        <v>1435.084340061818</v>
+        <v>1467.602181587196</v>
       </c>
       <c r="V12" t="n">
-        <v>1221.372813054851</v>
+        <v>1253.89065458023</v>
       </c>
       <c r="W12" t="n">
-        <v>1008.13964479118</v>
+        <v>1040.657486316559</v>
       </c>
       <c r="X12" t="n">
-        <v>831.813662930073</v>
+        <v>864.3315044554519</v>
       </c>
       <c r="Y12" t="n">
-        <v>672.411703293903</v>
+        <v>704.9295448192819</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>995.0035439350083</v>
+        <v>671.9656057635236</v>
       </c>
       <c r="C13" t="n">
-        <v>823.9101714967248</v>
+        <v>500.8722333252401</v>
       </c>
       <c r="D13" t="n">
-        <v>664.4155268196348</v>
+        <v>341.3775886481502</v>
       </c>
       <c r="E13" t="n">
-        <v>503.5047116879543</v>
+        <v>341.3775886481502</v>
       </c>
       <c r="F13" t="n">
-        <v>338.8735857985455</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H13" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="J13" t="n">
-        <v>116.8648064467601</v>
+        <v>116.86480644676</v>
       </c>
       <c r="K13" t="n">
         <v>175.3063357648813</v>
       </c>
       <c r="L13" t="n">
-        <v>576.1823318821755</v>
+        <v>576.1823318821754</v>
       </c>
       <c r="M13" t="n">
-        <v>834.2525509827994</v>
+        <v>834.2525509827981</v>
       </c>
       <c r="N13" t="n">
-        <v>928.1651249726434</v>
+        <v>928.165124972642</v>
       </c>
       <c r="O13" t="n">
-        <v>1321.756545649937</v>
+        <v>1321.756545649936</v>
       </c>
       <c r="P13" t="n">
-        <v>1642.118498692662</v>
+        <v>1642.11849869266</v>
       </c>
       <c r="Q13" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="R13" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="S13" t="n">
-        <v>1787.049525288419</v>
+        <v>1598.885537000468</v>
       </c>
       <c r="T13" t="n">
-        <v>1551.63466354788</v>
+        <v>1363.470675259929</v>
       </c>
       <c r="U13" t="n">
-        <v>1268.889288995486</v>
+        <v>1363.470675259929</v>
       </c>
       <c r="V13" t="n">
-        <v>995.0035439350083</v>
+        <v>1363.470675259929</v>
       </c>
       <c r="W13" t="n">
-        <v>995.0035439350083</v>
+        <v>1084.401010768803</v>
       </c>
       <c r="X13" t="n">
-        <v>995.0035439350083</v>
+        <v>1084.401010768803</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.0035439350083</v>
+        <v>859.665312157568</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1281.236208721914</v>
+        <v>1141.256308329654</v>
       </c>
       <c r="C14" t="n">
-        <v>871.1116180351842</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="D14" t="n">
-        <v>871.1116180351842</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="E14" t="n">
-        <v>456.7714025520808</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="F14" t="n">
-        <v>35.74099050576837</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="G14" t="n">
-        <v>35.74099050576837</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H14" t="n">
         <v>35.74099050576837</v>
@@ -5278,22 +5278,22 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J14" t="n">
-        <v>142.5703854689896</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2290557446586</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N14" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O14" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P14" t="n">
         <v>1601.546999092373</v>
@@ -5311,19 +5311,19 @@
         <v>1787.049525288418</v>
       </c>
       <c r="U14" t="n">
-        <v>1631.073763385433</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="V14" t="n">
-        <v>1281.236208721914</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="W14" t="n">
-        <v>1281.236208721914</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="X14" t="n">
-        <v>1281.236208721914</v>
+        <v>1386.406127457371</v>
       </c>
       <c r="Y14" t="n">
-        <v>1281.236208721914</v>
+        <v>1386.406127457371</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>455.1947750977179</v>
+        <v>604.9562925854597</v>
       </c>
       <c r="C15" t="n">
-        <v>321.1997038466636</v>
+        <v>470.9612213344054</v>
       </c>
       <c r="D15" t="n">
-        <v>204.302546066056</v>
+        <v>354.0640635537978</v>
       </c>
       <c r="E15" t="n">
-        <v>204.302546066056</v>
+        <v>233.5712475461258</v>
       </c>
       <c r="F15" t="n">
-        <v>95.34266624856059</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G15" t="n">
         <v>95.34266624856059</v>
@@ -5360,25 +5360,25 @@
         <v>354.0218197042261</v>
       </c>
       <c r="K15" t="n">
-        <v>651.6352588491867</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L15" t="n">
-        <v>841.6676203895089</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M15" t="n">
-        <v>1071.265954669399</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N15" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O15" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P15" t="n">
-        <v>1686.980039158655</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q15" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288418</v>
@@ -5390,19 +5390,19 @@
         <v>1545.804889936497</v>
       </c>
       <c r="U15" t="n">
-        <v>1358.170444501219</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V15" t="n">
-        <v>1144.458917494253</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W15" t="n">
-        <v>931.2257492305816</v>
+        <v>921.5853070821535</v>
       </c>
       <c r="X15" t="n">
-        <v>754.8997673694745</v>
+        <v>745.2593252210463</v>
       </c>
       <c r="Y15" t="n">
-        <v>595.4978077333045</v>
+        <v>745.2593252210463</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.3585991618586</v>
+        <v>641.4487215056488</v>
       </c>
       <c r="C16" t="n">
-        <v>374.2652267235751</v>
+        <v>470.3553490673653</v>
       </c>
       <c r="D16" t="n">
-        <v>374.2652267235751</v>
+        <v>310.8607043902753</v>
       </c>
       <c r="E16" t="n">
-        <v>213.3544115918946</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="F16" t="n">
-        <v>213.3544115918946</v>
+        <v>122.991576717685</v>
       </c>
       <c r="G16" t="n">
-        <v>213.3544115918946</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H16" t="n">
-        <v>72.34893933892153</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I16" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J16" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K16" t="n">
-        <v>381.5865293505954</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L16" t="n">
-        <v>782.4625254678895</v>
+        <v>325.209197607252</v>
       </c>
       <c r="M16" t="n">
-        <v>1095.150034455916</v>
+        <v>763.1157330083308</v>
       </c>
       <c r="N16" t="n">
         <v>1189.06260844576</v>
@@ -5460,28 +5460,28 @@
         <v>1787.049525288418</v>
       </c>
       <c r="R16" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S16" t="n">
-        <v>1575.748442655586</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.333580915047</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.588206362653</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="V16" t="n">
-        <v>783.7024613021752</v>
+        <v>1108.218092390819</v>
       </c>
       <c r="W16" t="n">
-        <v>783.7024613021752</v>
+        <v>829.1484278996932</v>
       </c>
       <c r="X16" t="n">
-        <v>545.3585991618586</v>
+        <v>829.1484278996932</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.3585991618586</v>
+        <v>829.1484278996932</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>853.5280648392925</v>
+        <v>855.6355366338903</v>
       </c>
       <c r="C17" t="n">
-        <v>443.4034741525626</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="D17" t="n">
-        <v>38.93954424562315</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="E17" t="n">
-        <v>38.93954424562315</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="F17" t="n">
-        <v>38.93954424562315</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G17" t="n">
         <v>38.93954424562315</v>
@@ -5521,7 +5521,7 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L17" t="n">
-        <v>562.2973247064785</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M17" t="n">
         <v>841.1329596152972</v>
@@ -5542,25 +5542,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U17" t="n">
-        <v>1655.10813572225</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V17" t="n">
-        <v>1655.10813572225</v>
+        <v>1437.2119706249</v>
       </c>
       <c r="W17" t="n">
-        <v>1655.10813572225</v>
+        <v>1053.451669760068</v>
       </c>
       <c r="X17" t="n">
-        <v>1254.464737891202</v>
+        <v>1053.451669760068</v>
       </c>
       <c r="Y17" t="n">
-        <v>853.5280648392925</v>
+        <v>855.6355366338903</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>575.6875911053899</v>
+        <v>445.5543329492901</v>
       </c>
       <c r="C18" t="n">
-        <v>441.6925198543356</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="D18" t="n">
-        <v>324.795362073728</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E18" t="n">
-        <v>204.302546066056</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F18" t="n">
-        <v>95.34266624856059</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G18" t="n">
         <v>95.34266624856059</v>
@@ -5591,28 +5591,28 @@
         <v>35.74099050576838</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J18" t="n">
-        <v>91.74661827365901</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>219.1218605877237</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L18" t="n">
-        <v>409.1542221280459</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M18" t="n">
-        <v>638.7525564079365</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N18" t="n">
-        <v>880.2631765959275</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O18" t="n">
-        <v>1092.199194082995</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P18" t="n">
-        <v>1254.466640897193</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q18" t="n">
         <v>1687.264539063037</v>
@@ -5639,7 +5639,7 @@
         <v>745.2593252210468</v>
       </c>
       <c r="Y18" t="n">
-        <v>715.9906237409765</v>
+        <v>585.8573655848768</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>645.152801357374</v>
+        <v>693.5227106334419</v>
       </c>
       <c r="C19" t="n">
-        <v>474.0594289190905</v>
+        <v>522.4293381951584</v>
       </c>
       <c r="D19" t="n">
-        <v>314.5647842420005</v>
+        <v>362.9346935180683</v>
       </c>
       <c r="E19" t="n">
-        <v>287.6227026070937</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="F19" t="n">
-        <v>122.991576717685</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G19" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H19" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I19" t="n">
         <v>35.74099050576838</v>
       </c>
       <c r="J19" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K19" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L19" t="n">
-        <v>403.4820506015302</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M19" t="n">
-        <v>841.3885860026091</v>
+        <v>1220.369060868969</v>
       </c>
       <c r="N19" t="n">
-        <v>935.3011599924531</v>
+        <v>1314.281634858813</v>
       </c>
       <c r="O19" t="n">
-        <v>1321.756545649937</v>
+        <v>1392.798296117366</v>
       </c>
       <c r="P19" t="n">
         <v>1642.118498692661</v>
@@ -5697,28 +5697,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.333580915047</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.588206362654</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V19" t="n">
-        <v>1057.588206362654</v>
+        <v>1623.371642270164</v>
       </c>
       <c r="W19" t="n">
-        <v>1057.588206362654</v>
+        <v>1344.301977779038</v>
       </c>
       <c r="X19" t="n">
-        <v>1057.588206362654</v>
+        <v>1105.958115638722</v>
       </c>
       <c r="Y19" t="n">
-        <v>832.8525077514183</v>
+        <v>881.2224170274862</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>471.2070011022845</v>
+        <v>1376.82834562393</v>
       </c>
       <c r="C20" t="n">
-        <v>61.08241041555459</v>
+        <v>966.7037549372</v>
       </c>
       <c r="D20" t="n">
-        <v>61.08241041555459</v>
+        <v>966.7037549372</v>
       </c>
       <c r="E20" t="n">
-        <v>35.74099050576838</v>
+        <v>552.3635394540967</v>
       </c>
       <c r="F20" t="n">
-        <v>35.74099050576838</v>
+        <v>131.3331274077842</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446591</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064788</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N20" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O20" t="n">
         <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S20" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T20" t="n">
-        <v>1488.153676578333</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U20" t="n">
-        <v>1231.265735430293</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V20" t="n">
-        <v>881.4281807667739</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W20" t="n">
-        <v>881.4281807667739</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="X20" t="n">
-        <v>881.4281807667739</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="Y20" t="n">
-        <v>881.4281807667739</v>
+        <v>1787.049525288419</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>621.9219942215105</v>
+        <v>466.7277112878945</v>
       </c>
       <c r="C21" t="n">
-        <v>487.9269229704562</v>
+        <v>332.7326400368402</v>
       </c>
       <c r="D21" t="n">
-        <v>371.0297651898487</v>
+        <v>215.8354822562326</v>
       </c>
       <c r="E21" t="n">
-        <v>250.5369491821766</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="F21" t="n">
-        <v>141.5770693646812</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="G21" t="n">
-        <v>35.74099050576838</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J21" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L21" t="n">
-        <v>841.6676203895091</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M21" t="n">
-        <v>1071.2659546694</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N21" t="n">
-        <v>1312.776574857391</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O21" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P21" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q21" t="n">
         <v>1775.234255540019</v>
@@ -5858,25 +5858,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579393</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T21" t="n">
-        <v>1545.804889936497</v>
+        <v>1566.978268275102</v>
       </c>
       <c r="U21" t="n">
-        <v>1348.530002352791</v>
+        <v>1369.703380691396</v>
       </c>
       <c r="V21" t="n">
-        <v>1311.186136618046</v>
+        <v>1155.99185368443</v>
       </c>
       <c r="W21" t="n">
-        <v>1097.952968354374</v>
+        <v>942.7586854207584</v>
       </c>
       <c r="X21" t="n">
-        <v>921.6269864932672</v>
+        <v>766.4327035596511</v>
       </c>
       <c r="Y21" t="n">
-        <v>762.2250268570972</v>
+        <v>607.0307439234812</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.2398227528224</v>
+        <v>435.0904214089416</v>
       </c>
       <c r="C22" t="n">
-        <v>356.1464503145389</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="D22" t="n">
-        <v>196.6518056374489</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="E22" t="n">
-        <v>35.74099050576838</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="F22" t="n">
-        <v>35.74099050576838</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="G22" t="n">
-        <v>35.74099050576838</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576838</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J22" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K22" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L22" t="n">
-        <v>522.6199757875572</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M22" t="n">
-        <v>960.5265111886362</v>
+        <v>1220.369060868969</v>
       </c>
       <c r="N22" t="n">
-        <v>1054.43908517848</v>
+        <v>1314.281634858813</v>
       </c>
       <c r="O22" t="n">
         <v>1448.030505855774</v>
       </c>
       <c r="P22" t="n">
-        <v>1768.392458898498</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915047</v>
+        <v>1458.490911906983</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.588206362654</v>
+        <v>1175.74553735459</v>
       </c>
       <c r="V22" t="n">
-        <v>939.6752277581021</v>
+        <v>901.8597922941116</v>
       </c>
       <c r="W22" t="n">
-        <v>939.6752277581021</v>
+        <v>622.7901278029859</v>
       </c>
       <c r="X22" t="n">
-        <v>939.6752277581021</v>
+        <v>622.7901278029859</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.9395291468668</v>
+        <v>622.7901278029859</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>450.6812819479067</v>
+        <v>1690.515839384262</v>
       </c>
       <c r="C23" t="n">
-        <v>40.55669126117681</v>
+        <v>1280.391248697532</v>
       </c>
       <c r="D23" t="n">
-        <v>40.55669126117681</v>
+        <v>875.9273187905926</v>
       </c>
       <c r="E23" t="n">
-        <v>40.55669126117681</v>
+        <v>461.5871033074893</v>
       </c>
       <c r="F23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
         <v>147.3860862243982</v>
@@ -6010,7 +6010,7 @@
         <v>1606.362699847782</v>
       </c>
       <c r="Q23" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R23" t="n">
         <v>2027.83456305884</v>
@@ -6019,22 +6019,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T23" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U23" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V23" t="n">
-        <v>1636.021653695695</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="W23" t="n">
-        <v>1252.261352830864</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="X23" t="n">
-        <v>851.6179549998167</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="Y23" t="n">
-        <v>450.6812819479067</v>
+        <v>1941.703445671247</v>
       </c>
     </row>
     <row r="24">
@@ -6050,61 +6050,61 @@
         <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
-        <v>435.4471416880497</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E24" t="n">
-        <v>314.9543256803777</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F24" t="n">
-        <v>205.9944458628822</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
-        <v>100.1583670039693</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H24" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I24" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>96.56231902906745</v>
+        <v>271.1051808247884</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9375613431321</v>
+        <v>398.480423138853</v>
       </c>
       <c r="L24" t="n">
-        <v>413.9699228834544</v>
+        <v>588.5127846791753</v>
       </c>
       <c r="M24" t="n">
-        <v>643.5682571633449</v>
+        <v>818.1111189590658</v>
       </c>
       <c r="N24" t="n">
-        <v>923.9869682149513</v>
+        <v>1059.621739147057</v>
       </c>
       <c r="O24" t="n">
-        <v>1425.876022572014</v>
+        <v>1271.557756634124</v>
       </c>
       <c r="P24" t="n">
-        <v>1927.765076929077</v>
+        <v>1433.825203448322</v>
       </c>
       <c r="Q24" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S24" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U24" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V24" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W24" t="n">
         <v>1162.370344852575</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>287.3019221501834</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="C25" t="n">
-        <v>287.3019221501834</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="D25" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="E25" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="F25" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G25" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H25" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J25" t="n">
-        <v>121.6805072021685</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K25" t="n">
-        <v>180.1220365202897</v>
+        <v>291.3921994662168</v>
       </c>
       <c r="L25" t="n">
-        <v>580.9980326375839</v>
+        <v>692.268195583511</v>
       </c>
       <c r="M25" t="n">
-        <v>743.003287305635</v>
+        <v>1130.17473098459</v>
       </c>
       <c r="N25" t="n">
-        <v>1168.950162743065</v>
+        <v>1556.121606422019</v>
       </c>
       <c r="O25" t="n">
-        <v>1562.541583420358</v>
+        <v>1949.713027099313</v>
       </c>
       <c r="P25" t="n">
-        <v>1882.903536463083</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q25" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T25" t="n">
-        <v>1773.781973399777</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U25" t="n">
-        <v>1491.036598847383</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V25" t="n">
-        <v>1217.150853786905</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W25" t="n">
-        <v>938.0811892957797</v>
+        <v>787.1880911177211</v>
       </c>
       <c r="X25" t="n">
-        <v>699.7373271554632</v>
+        <v>548.8442289774046</v>
       </c>
       <c r="Y25" t="n">
-        <v>475.0016285442279</v>
+        <v>324.1085303661692</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>461.5871033074893</v>
+        <v>733.8399466037345</v>
       </c>
       <c r="C26" t="n">
-        <v>461.5871033074893</v>
+        <v>733.8399466037345</v>
       </c>
       <c r="D26" t="n">
-        <v>461.5871033074893</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="E26" t="n">
-        <v>461.5871033074893</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="F26" t="n">
-        <v>40.55669126117681</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="G26" t="n">
-        <v>40.55669126117681</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H26" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I26" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K26" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L26" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M26" t="n">
-        <v>845.9486603707057</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N26" t="n">
-        <v>1131.164739759458</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O26" t="n">
-        <v>1395.085414945227</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P26" t="n">
         <v>1842.332036862795</v>
@@ -6256,22 +6256,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T26" t="n">
-        <v>1728.938714348754</v>
+        <v>1928.464824964103</v>
       </c>
       <c r="U26" t="n">
-        <v>1595.828356666887</v>
+        <v>1928.464824964103</v>
       </c>
       <c r="V26" t="n">
-        <v>1245.990802003368</v>
+        <v>1928.464824964103</v>
       </c>
       <c r="W26" t="n">
-        <v>862.2305011385367</v>
+        <v>1544.704524099271</v>
       </c>
       <c r="X26" t="n">
-        <v>461.5871033074893</v>
+        <v>1144.061126268224</v>
       </c>
       <c r="Y26" t="n">
-        <v>461.5871033074893</v>
+        <v>1144.061126268224</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C27" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D27" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E27" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F27" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G27" t="n">
         <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I27" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M27" t="n">
-        <v>643.5682571633449</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N27" t="n">
-        <v>885.0788773513359</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1386.967931708399</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
-        <v>1928.049576833458</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6338,7 +6338,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V27" t="n">
         <v>1375.603513116246</v>
@@ -6347,10 +6347,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>433.4438756154752</v>
+        <v>844.480364854142</v>
       </c>
       <c r="C28" t="n">
-        <v>433.4438756154752</v>
+        <v>673.3869924158585</v>
       </c>
       <c r="D28" t="n">
-        <v>433.4438756154752</v>
+        <v>673.3869924158585</v>
       </c>
       <c r="E28" t="n">
-        <v>433.4438756154752</v>
+        <v>512.476177284178</v>
       </c>
       <c r="F28" t="n">
-        <v>268.8127497260665</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="G28" t="n">
-        <v>268.8127497260665</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="H28" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
         <v>121.6805072021685</v>
@@ -6390,46 +6390,46 @@
         <v>180.1220365202897</v>
       </c>
       <c r="L28" t="n">
-        <v>305.0967519045561</v>
+        <v>580.9980326375839</v>
       </c>
       <c r="M28" t="n">
-        <v>743.003287305635</v>
+        <v>1018.904568038663</v>
       </c>
       <c r="N28" t="n">
-        <v>1168.950162743065</v>
+        <v>1444.851443476092</v>
       </c>
       <c r="O28" t="n">
-        <v>1562.541583420358</v>
+        <v>1838.442864153386</v>
       </c>
       <c r="P28" t="n">
-        <v>1882.903536463083</v>
+        <v>1897.907333722993</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>1816.533480426008</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T28" t="n">
-        <v>1581.118618685469</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.373244133075</v>
+        <v>1769.145377060216</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.487499072597</v>
+        <v>1495.259631999738</v>
       </c>
       <c r="W28" t="n">
-        <v>745.4178345814714</v>
+        <v>1495.259631999738</v>
       </c>
       <c r="X28" t="n">
-        <v>507.0739724411548</v>
+        <v>1256.915769859422</v>
       </c>
       <c r="Y28" t="n">
-        <v>433.4438756154752</v>
+        <v>1032.180071248186</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>454.8969067442801</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="C29" t="n">
-        <v>454.8969067442801</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="D29" t="n">
-        <v>454.8969067442801</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="E29" t="n">
-        <v>40.55669126117681</v>
+        <v>1156.977830444645</v>
       </c>
       <c r="F29" t="n">
-        <v>40.55669126117681</v>
+        <v>735.9474183983323</v>
       </c>
       <c r="G29" t="n">
-        <v>40.55669126117681</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632699</v>
       </c>
       <c r="K29" t="n">
-        <v>328.0447565000673</v>
+        <v>437.0184264389389</v>
       </c>
       <c r="L29" t="n">
-        <v>567.1130254618869</v>
+        <v>676.0866954007586</v>
       </c>
       <c r="M29" t="n">
-        <v>845.9486603707057</v>
+        <v>954.9223303095774</v>
       </c>
       <c r="N29" t="n">
-        <v>1131.164739759458</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O29" t="n">
-        <v>1395.085414945227</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P29" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
@@ -6496,19 +6496,19 @@
         <v>1728.938714348754</v>
       </c>
       <c r="U29" t="n">
-        <v>1472.050773200715</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="V29" t="n">
-        <v>1122.213218537195</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="W29" t="n">
-        <v>855.5403045753276</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="X29" t="n">
-        <v>454.8969067442801</v>
+        <v>1571.318045927748</v>
       </c>
       <c r="Y29" t="n">
-        <v>454.8969067442801</v>
+        <v>1571.318045927748</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>100.158367003969</v>
       </c>
       <c r="H30" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I30" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J30" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L30" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M30" t="n">
-        <v>643.5682571633449</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N30" t="n">
-        <v>885.0788773513359</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O30" t="n">
-        <v>1386.967931708399</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P30" t="n">
-        <v>1549.235378522597</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q30" t="n">
         <v>1928.049576833458</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.0739724411548</v>
+        <v>282.3382738299193</v>
       </c>
       <c r="C31" t="n">
-        <v>335.9806000028713</v>
+        <v>282.3382738299193</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4675063928573</v>
+        <v>282.3382738299193</v>
       </c>
       <c r="E31" t="n">
-        <v>40.55669126117681</v>
+        <v>282.3382738299193</v>
       </c>
       <c r="F31" t="n">
-        <v>40.55669126117681</v>
+        <v>282.3382738299193</v>
       </c>
       <c r="G31" t="n">
-        <v>40.55669126117681</v>
+        <v>116.0553859492998</v>
       </c>
       <c r="H31" t="n">
-        <v>40.55669126117681</v>
+        <v>116.0553859492998</v>
       </c>
       <c r="I31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J31" t="n">
         <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>180.1220365202897</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L31" t="n">
-        <v>580.9980326375839</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M31" t="n">
-        <v>1018.904568038663</v>
+        <v>1225.184761624377</v>
       </c>
       <c r="N31" t="n">
-        <v>1444.851443476092</v>
+        <v>1484.024922161805</v>
       </c>
       <c r="O31" t="n">
         <v>1562.541583420358</v>
       </c>
       <c r="P31" t="n">
-        <v>1882.903536463083</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
@@ -6660,13 +6660,13 @@
         <v>1024.487499072597</v>
       </c>
       <c r="W31" t="n">
-        <v>745.4178345814714</v>
+        <v>745.4178345814712</v>
       </c>
       <c r="X31" t="n">
-        <v>507.0739724411548</v>
+        <v>507.0739724411546</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.0739724411548</v>
+        <v>282.3382738299193</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>450.6812819479067</v>
+        <v>1289.250463217177</v>
       </c>
       <c r="C32" t="n">
-        <v>40.55669126117681</v>
+        <v>879.1258725304473</v>
       </c>
       <c r="D32" t="n">
-        <v>40.55669126117681</v>
+        <v>879.1258725304473</v>
       </c>
       <c r="E32" t="n">
-        <v>40.55669126117681</v>
+        <v>464.785657047344</v>
       </c>
       <c r="F32" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="G32" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H32" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
         <v>147.3860862243982</v>
       </c>
       <c r="K32" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L32" t="n">
         <v>803.0823624768997</v>
@@ -6730,22 +6730,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U32" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V32" t="n">
-        <v>1379.101159685235</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="W32" t="n">
-        <v>995.3408588204034</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="X32" t="n">
-        <v>594.6974609893559</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="Y32" t="n">
-        <v>450.6812819479067</v>
+        <v>1699.471642881667</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M33" t="n">
-        <v>915.8589772405173</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N33" t="n">
-        <v>1157.369597428508</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O33" t="n">
-        <v>1659.258651785571</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P33" t="n">
-        <v>1821.526098599769</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6812,7 +6812,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
         <v>1375.603513116246</v>
@@ -6821,10 +6821,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>282.3382738299195</v>
+        <v>324.1085303661692</v>
       </c>
       <c r="C34" t="n">
-        <v>282.3382738299195</v>
+        <v>153.0151579278858</v>
       </c>
       <c r="D34" t="n">
-        <v>282.3382738299195</v>
+        <v>153.0151579278858</v>
       </c>
       <c r="E34" t="n">
-        <v>282.3382738299195</v>
+        <v>153.0151579278858</v>
       </c>
       <c r="F34" t="n">
-        <v>117.7071479405108</v>
+        <v>153.0151579278858</v>
       </c>
       <c r="G34" t="n">
-        <v>117.7071479405108</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H34" t="n">
-        <v>117.7071479405108</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J34" t="n">
         <v>121.6805072021685</v>
@@ -6864,46 +6864,46 @@
         <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>787.2782262232981</v>
+        <v>692.268195583511</v>
       </c>
       <c r="M34" t="n">
-        <v>880.2184121100915</v>
+        <v>1130.17473098459</v>
       </c>
       <c r="N34" t="n">
-        <v>1306.165287547521</v>
+        <v>1556.121606422019</v>
       </c>
       <c r="O34" t="n">
-        <v>1562.541583420358</v>
+        <v>1949.713027099313</v>
       </c>
       <c r="P34" t="n">
-        <v>1882.903536463083</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S34" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T34" t="n">
-        <v>1581.118618685469</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.373244133075</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V34" t="n">
-        <v>1024.487499072597</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W34" t="n">
-        <v>745.4178345814714</v>
+        <v>787.1880911177211</v>
       </c>
       <c r="X34" t="n">
-        <v>507.0739724411548</v>
+        <v>548.8442289774046</v>
       </c>
       <c r="Y34" t="n">
-        <v>282.3382738299195</v>
+        <v>324.1085303661692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.2796026898592</v>
+        <v>754.5558210499835</v>
       </c>
       <c r="C35" t="n">
-        <v>139.2796026898592</v>
+        <v>754.5558210499835</v>
       </c>
       <c r="D35" t="n">
-        <v>35.74099050576837</v>
+        <v>754.5558210499835</v>
       </c>
       <c r="E35" t="n">
-        <v>35.74099050576837</v>
+        <v>754.5558210499835</v>
       </c>
       <c r="F35" t="n">
-        <v>35.74099050576837</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562317</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576841</v>
       </c>
       <c r="J35" t="n">
         <v>142.5703854689898</v>
@@ -6958,31 +6958,31 @@
         <v>1601.546999092373</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.697478824116</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R35" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="S35" t="n">
-        <v>1700.918407900825</v>
+        <v>1700.918407900828</v>
       </c>
       <c r="T35" t="n">
-        <v>1700.918407900825</v>
+        <v>1488.153676578334</v>
       </c>
       <c r="U35" t="n">
-        <v>1700.918407900825</v>
+        <v>1488.153676578334</v>
       </c>
       <c r="V35" t="n">
-        <v>1351.080853237306</v>
+        <v>1138.316121914815</v>
       </c>
       <c r="W35" t="n">
-        <v>1351.080853237306</v>
+        <v>754.5558210499835</v>
       </c>
       <c r="X35" t="n">
-        <v>950.4374554062586</v>
+        <v>754.5558210499835</v>
       </c>
       <c r="Y35" t="n">
-        <v>549.5007823543486</v>
+        <v>754.5558210499835</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.5543329492895</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C36" t="n">
-        <v>311.5592616982352</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D36" t="n">
-        <v>262.0698853723533</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E36" t="n">
-        <v>141.5770693646812</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F36" t="n">
-        <v>141.5770693646812</v>
+        <v>35.74099050576841</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576841</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576841</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170231</v>
       </c>
       <c r="J36" t="n">
-        <v>271.9976205665603</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K36" t="n">
-        <v>399.372862880625</v>
+        <v>237.7286580436576</v>
       </c>
       <c r="L36" t="n">
-        <v>841.6676203895084</v>
+        <v>427.7610195839799</v>
       </c>
       <c r="M36" t="n">
-        <v>1071.265954669399</v>
+        <v>840.9072146475846</v>
       </c>
       <c r="N36" t="n">
-        <v>1312.77657485739</v>
+        <v>1082.417834835576</v>
       </c>
       <c r="O36" t="n">
-        <v>1524.712592344457</v>
+        <v>1524.71259234446</v>
       </c>
       <c r="P36" t="n">
-        <v>1686.980039158655</v>
+        <v>1686.980039158658</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.234255540018</v>
+        <v>1775.23425554002</v>
       </c>
       <c r="R36" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579392</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T36" t="n">
-        <v>1545.804889936496</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U36" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V36" t="n">
-        <v>1134.818475345824</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W36" t="n">
-        <v>921.5853070821532</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X36" t="n">
-        <v>745.2593252210461</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y36" t="n">
-        <v>585.8573655848761</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>343.0293506393608</v>
+        <v>435.0904214089416</v>
       </c>
       <c r="C37" t="n">
-        <v>343.0293506393608</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0293506393608</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0293506393608</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0293506393608</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="G37" t="n">
-        <v>176.7464627587414</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576837</v>
+        <v>122.9915767176851</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576841</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542367</v>
+        <v>51.86344281542371</v>
       </c>
       <c r="K37" t="n">
-        <v>110.3049721335449</v>
+        <v>316.5851657192591</v>
       </c>
       <c r="L37" t="n">
-        <v>511.1809682508391</v>
+        <v>403.4820506015302</v>
       </c>
       <c r="M37" t="n">
-        <v>604.1211541376325</v>
+        <v>841.3885860026091</v>
       </c>
       <c r="N37" t="n">
-        <v>1030.068029575062</v>
+        <v>1243.239884391385</v>
       </c>
       <c r="O37" t="n">
-        <v>1423.659450252356</v>
+        <v>1321.756545649939</v>
       </c>
       <c r="P37" t="n">
-        <v>1642.118498692661</v>
+        <v>1642.118498692663</v>
       </c>
       <c r="Q37" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655586</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.333580915047</v>
+        <v>1787.04952528842</v>
       </c>
       <c r="U37" t="n">
-        <v>1322.028328725326</v>
+        <v>1504.304150736027</v>
       </c>
       <c r="V37" t="n">
-        <v>1048.142583664848</v>
+        <v>1230.418405675549</v>
       </c>
       <c r="W37" t="n">
-        <v>769.0729191737219</v>
+        <v>951.348741184423</v>
       </c>
       <c r="X37" t="n">
-        <v>530.7290570334052</v>
+        <v>847.5258264142213</v>
       </c>
       <c r="Y37" t="n">
-        <v>530.7290570334052</v>
+        <v>622.790127802986</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>860.2057966756015</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="C38" t="n">
-        <v>450.0812059888717</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="D38" t="n">
-        <v>450.0812059888717</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="E38" t="n">
-        <v>35.74099050576839</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576839</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576839</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H38" t="n">
         <v>35.74099050576839</v>
@@ -7201,25 +7201,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T38" t="n">
-        <v>1574.284793965926</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U38" t="n">
-        <v>1574.284793965926</v>
+        <v>1444.030466752787</v>
       </c>
       <c r="V38" t="n">
-        <v>1574.284793965926</v>
+        <v>1094.192912089268</v>
       </c>
       <c r="W38" t="n">
-        <v>1190.524493101095</v>
+        <v>710.4326112244364</v>
       </c>
       <c r="X38" t="n">
-        <v>1190.524493101095</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="Y38" t="n">
-        <v>860.2057966756015</v>
+        <v>324.5603159413865</v>
       </c>
     </row>
     <row r="39">
@@ -7250,49 +7250,49 @@
         <v>35.74099050576839</v>
       </c>
       <c r="I39" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J39" t="n">
-        <v>91.74661827365902</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K39" t="n">
-        <v>219.1218605877237</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L39" t="n">
-        <v>409.1542221280459</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M39" t="n">
-        <v>638.7525564079365</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N39" t="n">
-        <v>1081.04731391682</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1523.342071425704</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1685.609518239902</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.863734621265</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S39" t="n">
-        <v>1700.495187579394</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T39" t="n">
-        <v>1545.804889936498</v>
+        <v>1722.172551208718</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.530002352792</v>
+        <v>1524.897663625012</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345826</v>
+        <v>1311.186136618046</v>
       </c>
       <c r="W39" t="n">
-        <v>921.6269864932672</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X39" t="n">
         <v>921.6269864932672</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.6118955017613</v>
+        <v>750.6853966600481</v>
       </c>
       <c r="C40" t="n">
-        <v>361.5185230634778</v>
+        <v>750.6853966600481</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0238783863878</v>
+        <v>591.1907519829581</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0238783863878</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0238783863878</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576839</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576839</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I40" t="n">
         <v>35.74099050576839</v>
@@ -7335,19 +7335,19 @@
         <v>116.8648064467601</v>
       </c>
       <c r="K40" t="n">
-        <v>381.5865293505955</v>
+        <v>238.3123127249818</v>
       </c>
       <c r="L40" t="n">
-        <v>782.4625254678897</v>
+        <v>325.2091976072529</v>
       </c>
       <c r="M40" t="n">
-        <v>875.4027113546831</v>
+        <v>763.1157330083317</v>
       </c>
       <c r="N40" t="n">
-        <v>1243.239884391384</v>
+        <v>1189.062608445761</v>
       </c>
       <c r="O40" t="n">
-        <v>1321.756545649937</v>
+        <v>1582.654029123055</v>
       </c>
       <c r="P40" t="n">
         <v>1642.118498692662</v>
@@ -7356,28 +7356,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R40" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S40" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T40" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="U40" t="n">
-        <v>1293.003068103193</v>
+        <v>1334.773324639443</v>
       </c>
       <c r="V40" t="n">
-        <v>1183.391162647358</v>
+        <v>1060.887579578965</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.391162647358</v>
+        <v>989.0292588003647</v>
       </c>
       <c r="X40" t="n">
-        <v>945.047300507041</v>
+        <v>750.6853966600481</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3116018958057</v>
+        <v>750.6853966600481</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1530.161584140379</v>
+        <v>1119.94040447589</v>
       </c>
       <c r="C41" t="n">
-        <v>1120.036993453649</v>
+        <v>854.5451358958112</v>
       </c>
       <c r="D41" t="n">
-        <v>1120.036993453649</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="E41" t="n">
-        <v>705.696777970546</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="F41" t="n">
-        <v>284.6663659242336</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G41" t="n">
         <v>35.74099050576837</v>
@@ -7420,7 +7420,7 @@
         <v>562.2973247064784</v>
       </c>
       <c r="M41" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N41" t="n">
         <v>1126.349039004049</v>
@@ -7487,28 +7487,28 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I42" t="n">
-        <v>54.34778796170227</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J42" t="n">
-        <v>110.3534157295929</v>
+        <v>170.2194754076013</v>
       </c>
       <c r="K42" t="n">
-        <v>237.7286580436576</v>
+        <v>297.594717721666</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0234155525412</v>
+        <v>487.6270792619882</v>
       </c>
       <c r="M42" t="n">
-        <v>909.6217498324318</v>
+        <v>717.2254135418788</v>
       </c>
       <c r="N42" t="n">
-        <v>1151.132370020423</v>
+        <v>958.7360337298697</v>
       </c>
       <c r="O42" t="n">
-        <v>1363.06838750749</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P42" t="n">
-        <v>1686.980039158656</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q42" t="n">
         <v>1775.234255540018</v>
@@ -7517,22 +7517,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V42" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W42" t="n">
-        <v>921.5853070821537</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X42" t="n">
-        <v>921.5853070821537</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y42" t="n">
         <v>762.2250268570972</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>252.8543186923301</v>
+        <v>1037.534779850855</v>
       </c>
       <c r="C43" t="n">
-        <v>252.8543186923301</v>
+        <v>915.3165225494567</v>
       </c>
       <c r="D43" t="n">
-        <v>93.3596740152401</v>
+        <v>755.8218778723667</v>
       </c>
       <c r="E43" t="n">
-        <v>93.3596740152401</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="F43" t="n">
-        <v>35.74099050576837</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G43" t="n">
-        <v>35.74099050576837</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H43" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J43" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K43" t="n">
-        <v>381.5865293505955</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L43" t="n">
-        <v>782.4625254678897</v>
+        <v>325.2091976072524</v>
       </c>
       <c r="M43" t="n">
-        <v>1220.369060868969</v>
+        <v>763.1157330083313</v>
       </c>
       <c r="N43" t="n">
-        <v>1504.137367864501</v>
+        <v>1189.062608445761</v>
       </c>
       <c r="O43" t="n">
         <v>1582.654029123055</v>
@@ -7599,22 +7599,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T43" t="n">
-        <v>1551.634663547879</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U43" t="n">
-        <v>1268.889288995486</v>
+        <v>1504.304150736025</v>
       </c>
       <c r="V43" t="n">
-        <v>995.0035439350077</v>
+        <v>1504.304150736025</v>
       </c>
       <c r="W43" t="n">
-        <v>715.933879443882</v>
+        <v>1225.234486244899</v>
       </c>
       <c r="X43" t="n">
-        <v>477.5900173035654</v>
+        <v>1225.234486244899</v>
       </c>
       <c r="Y43" t="n">
-        <v>252.8543186923301</v>
+        <v>1225.234486244899</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1488.153676578332</v>
+        <v>156.6947206588295</v>
       </c>
       <c r="C44" t="n">
-        <v>1078.029085891602</v>
+        <v>156.6947206588295</v>
       </c>
       <c r="D44" t="n">
-        <v>1078.029085891602</v>
+        <v>156.6947206588295</v>
       </c>
       <c r="E44" t="n">
-        <v>1078.029085891602</v>
+        <v>156.6947206588295</v>
       </c>
       <c r="F44" t="n">
-        <v>656.9986738452899</v>
+        <v>156.6947206588295</v>
       </c>
       <c r="G44" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H44" t="n">
         <v>35.74099050576837</v>
@@ -7657,7 +7657,7 @@
         <v>562.2973247064784</v>
       </c>
       <c r="M44" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N44" t="n">
         <v>1126.349039004049</v>
@@ -7675,25 +7675,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S44" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T44" t="n">
-        <v>1488.153676578332</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="U44" t="n">
-        <v>1488.153676578332</v>
+        <v>1317.396852817886</v>
       </c>
       <c r="V44" t="n">
-        <v>1488.153676578332</v>
+        <v>967.5592981543664</v>
       </c>
       <c r="W44" t="n">
-        <v>1488.153676578332</v>
+        <v>967.5592981543664</v>
       </c>
       <c r="X44" t="n">
-        <v>1488.153676578332</v>
+        <v>566.915900323319</v>
       </c>
       <c r="Y44" t="n">
-        <v>1488.153676578332</v>
+        <v>566.915900323319</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>681.5236699643028</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C45" t="n">
-        <v>547.5285987132485</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D45" t="n">
-        <v>430.6314409326409</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E45" t="n">
-        <v>310.1386249249689</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F45" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G45" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H45" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J45" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K45" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L45" t="n">
-        <v>841.6676203895089</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M45" t="n">
-        <v>1071.265954669399</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N45" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O45" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P45" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R45" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U45" t="n">
-        <v>1444.196306732218</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V45" t="n">
-        <v>1230.484779725251</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W45" t="n">
-        <v>1017.25161146158</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X45" t="n">
-        <v>840.9256296004728</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y45" t="n">
-        <v>681.5236699643028</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.6424727522082</v>
+        <v>820.2887984077777</v>
       </c>
       <c r="C46" t="n">
-        <v>423.491693647748</v>
+        <v>820.2887984077777</v>
       </c>
       <c r="D46" t="n">
-        <v>263.9970489706581</v>
+        <v>755.8218778723667</v>
       </c>
       <c r="E46" t="n">
-        <v>263.9970489706581</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="F46" t="n">
-        <v>263.9970489706581</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G46" t="n">
         <v>263.9970489706581</v>
@@ -7806,52 +7806,52 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K46" t="n">
-        <v>381.5865293505955</v>
+        <v>316.5851657192591</v>
       </c>
       <c r="L46" t="n">
-        <v>782.4625254678897</v>
+        <v>403.4820506015301</v>
       </c>
       <c r="M46" t="n">
-        <v>1220.369060868969</v>
+        <v>841.3885860026089</v>
       </c>
       <c r="N46" t="n">
-        <v>1314.281634858813</v>
+        <v>1267.335461440038</v>
       </c>
       <c r="O46" t="n">
-        <v>1582.654029123055</v>
+        <v>1660.926882117332</v>
       </c>
       <c r="P46" t="n">
-        <v>1642.118498692661</v>
+        <v>1720.391351686939</v>
       </c>
       <c r="Q46" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R46" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S46" t="n">
-        <v>1575.748442655586</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T46" t="n">
-        <v>1340.333580915047</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U46" t="n">
-        <v>1340.333580915047</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="V46" t="n">
-        <v>1066.447835854569</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="W46" t="n">
-        <v>787.3781713634435</v>
+        <v>820.2887984077777</v>
       </c>
       <c r="X46" t="n">
-        <v>787.3781713634435</v>
+        <v>820.2887984077777</v>
       </c>
       <c r="Y46" t="n">
-        <v>562.6424727522082</v>
+        <v>820.2887984077777</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9707135290540378</v>
+        <v>0.970713529054045</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>182.0717194877792</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>254.8105009783447</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>190.7525194816471</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>166.7980133473036</v>
+        <v>166.7980133473024</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>171.9577745766626</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>317.1506174091142</v>
+        <v>129.3003440317536</v>
       </c>
       <c r="M16" t="n">
-        <v>221.9669930315489</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>348.0239209944261</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9336,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>311.0492165645761</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>191.7734676825139</v>
       </c>
       <c r="Q19" t="n">
         <v>127.5494547533709</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>190.7525194816464</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>171.9577745766634</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>120.3413385717445</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>55.79011084687713</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.3528656717301</v>
+        <v>110.0744140796682</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>157.511176100795</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>39.30110188243981</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>343.0521288311769</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>178.0520470477409</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>69.76269573864411</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>293.4949312419179</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>38.46245505252055</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>112.3941039857848</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>110.0744140796684</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>293.4949312419179</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10272,7 +10272,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10281,10 +10281,10 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>166.593521765236</v>
       </c>
       <c r="O31" t="n">
-        <v>39.5691703896087</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="L32" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.3120993225331</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>221.1808894901374</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>179.6561965800847</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.726618847897043e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>182.0717194877791</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>254.8105009783447</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>185.4018795795093</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>232.6855959816331</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>311.0492165645776</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6005847178768</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>202.8122599200938</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>232.6855959816328</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R39" t="n">
-        <v>1.384364564398341</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>63.64240096979847</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>276.6915141887442</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>79.26551225650735</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8105009783448</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>163.2769745827956</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>357.6167082096171</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>129.300344031754</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>191.7734676825137</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>190.7525194816462</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>191.7734676825137</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>48.48596688036316</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>195.5709974300153</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>392.389250218198</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.91519032756226</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>117.8814574420619</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>90.49228754220461</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8355178356165</v>
+        <v>22.90572340143353</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>163.4206469314044</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>3.166568202456233</v>
@@ -23551,16 +23551,16 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
-        <v>99.90305745260375</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>75.80170360505467</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>9.544037726943969</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>136.296085215014</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I16" t="n">
-        <v>50.13621100497586</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23746,7 +23746,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>285.9311321812619</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T17" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
-        <v>208.9668922797685</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>201.0893345264747</v>
       </c>
     </row>
     <row r="18">
@@ -23813,10 +23813,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>117.881457442061</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>128.8319255745387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.6290461618061</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>109.1057834218008</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>385.1088076175839</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5056876845219</v>
+        <v>311.0360403539825</v>
       </c>
       <c r="H20" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>20.96164455521816</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>174.6039846594982</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24144,10 +24144,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>75.62320371112881</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4130387913672</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>157.4432376437293</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>402.5056876845219</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U23" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
-        <v>254.3512890703561</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>63.00608684648051</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24384,7 +24384,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>190.7367211671652</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>3.166568202456219</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>197.5308495091954</v>
       </c>
       <c r="U26" t="n">
-        <v>122.5398076315111</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>256.8763397913661</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5945457677001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>3.166568202456219</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>98.2745999997633</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>115.9165130339342</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24840,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>24.73173555640525</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
-        <v>86.37808034979749</v>
+        <v>11.63437260855568</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.5056876845219</v>
@@ -24937,7 +24937,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>254.3512890703561</v>
+        <v>157.117821559706</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,16 +25086,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6200590018132</v>
+        <v>53.28617700177136</v>
       </c>
       <c r="H34" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>9.999128237256869</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>297.9160645456201</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>396.7968137553165</v>
       </c>
       <c r="G35" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.319061736559</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>66.73370364017842</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
         <v>59.00565898536429</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>69.8262665891727</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>261.7957211390459</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>133.1757378964138</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25408,7 +25408,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>3.166568202456219</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>14.62339152251758</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.91179686015272</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>88.91519032756231</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.04126261700164946</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>162.6311012085959</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>205.1392302753999</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>143.2820288855849</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>156.0695660202414</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
         <v>285.9311321812619</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>88.91519032756305</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04126261700236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>48.38636398551652</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>105.9423179561376</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>73.39171335965756</v>
+        <v>282.7614948329914</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
         <v>3.166568202456219</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>69.82626658917451</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>94.70964133563218</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>31.62316740048513</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>94.07744690026223</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>388902.2352783837</v>
+        <v>388902.2352783834</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>388902.2352783836</v>
+        <v>388902.2352783835</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>388902.2352783836</v>
+        <v>388902.2352783838</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>437799.0385654644</v>
+        <v>437799.0385654645</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>437799.0385654644</v>
+        <v>437799.0385654643</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>388902.2352783834</v>
+        <v>388902.2352783839</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>388902.2352783837</v>
+        <v>388902.2352783835</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>388902.2352783835</v>
+        <v>388902.2352783837</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>486007.2734085558</v>
+      </c>
+      <c r="C2" t="n">
         <v>486007.2734085559</v>
-      </c>
-      <c r="C2" t="n">
-        <v>486007.2734085558</v>
       </c>
       <c r="D2" t="n">
         <v>486007.2734085558</v>
@@ -26325,19 +26325,19 @@
         <v>276128.1558331049</v>
       </c>
       <c r="F2" t="n">
-        <v>276128.1558331049</v>
+        <v>276128.1558331047</v>
       </c>
       <c r="G2" t="n">
         <v>276128.1558331049</v>
       </c>
       <c r="H2" t="n">
-        <v>276128.1558331048</v>
+        <v>276128.1558331049</v>
       </c>
       <c r="I2" t="n">
+        <v>301708.411812217</v>
+      </c>
+      <c r="J2" t="n">
         <v>301708.4118122173</v>
-      </c>
-      <c r="J2" t="n">
-        <v>301708.4118122174</v>
       </c>
       <c r="K2" t="n">
         <v>301708.4118122173</v>
@@ -26346,16 +26346,16 @@
         <v>301708.4118122173</v>
       </c>
       <c r="M2" t="n">
+        <v>276128.1558331051</v>
+      </c>
+      <c r="N2" t="n">
         <v>276128.1558331049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>276128.155833105</v>
       </c>
       <c r="O2" t="n">
         <v>276128.1558331047</v>
       </c>
       <c r="P2" t="n">
-        <v>276128.155833105</v>
+        <v>276128.1558331048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.3559630442</v>
+        <v>560128.355963044</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.041615094651678e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723705</v>
+        <v>16007.44950723702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>355722.5312813406</v>
       </c>
       <c r="E4" t="n">
-        <v>21118.77151012024</v>
+        <v>21118.7715101202</v>
       </c>
       <c r="F4" t="n">
         <v>21118.77151012021</v>
       </c>
       <c r="G4" t="n">
-        <v>21118.77151012021</v>
+        <v>21118.77151012022</v>
       </c>
       <c r="H4" t="n">
-        <v>21118.77151012022</v>
+        <v>21118.77151012023</v>
       </c>
       <c r="I4" t="n">
-        <v>35960.76610263319</v>
+        <v>35960.76610263318</v>
       </c>
       <c r="J4" t="n">
         <v>35960.76610263318</v>
@@ -26450,16 +26450,16 @@
         <v>35960.76610263318</v>
       </c>
       <c r="M4" t="n">
-        <v>21118.77151012019</v>
+        <v>21118.77151012032</v>
       </c>
       <c r="N4" t="n">
         <v>21118.77151012023</v>
       </c>
       <c r="O4" t="n">
-        <v>21118.77151012021</v>
+        <v>21118.77151012022</v>
       </c>
       <c r="P4" t="n">
-        <v>21118.77151012021</v>
+        <v>21118.77151012022</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886572</v>
       </c>
       <c r="F5" t="n">
         <v>38742.42450886573</v>
@@ -26487,7 +26487,7 @@
         <v>38742.42450886574</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,7 +26502,7 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886576</v>
       </c>
       <c r="N5" t="n">
         <v>38742.42450886575</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96657.14212721528</v>
+        <v>96648.3424415858</v>
       </c>
       <c r="C6" t="n">
-        <v>96657.14212721522</v>
+        <v>96648.34244158586</v>
       </c>
       <c r="D6" t="n">
-        <v>96657.14212721516</v>
+        <v>96648.3424415858</v>
       </c>
       <c r="E6" t="n">
-        <v>-343861.3961489253</v>
+        <v>-344569.7928931393</v>
       </c>
       <c r="F6" t="n">
-        <v>216266.959814119</v>
+        <v>215558.5630699045</v>
       </c>
       <c r="G6" t="n">
-        <v>216266.959814119</v>
+        <v>215558.5630699047</v>
       </c>
       <c r="H6" t="n">
-        <v>216266.9598141189</v>
+        <v>215558.5630699047</v>
       </c>
       <c r="I6" t="n">
-        <v>207337.8391193709</v>
+        <v>206714.7098950869</v>
       </c>
       <c r="J6" t="n">
-        <v>223345.2886266081</v>
+        <v>222722.1594023241</v>
       </c>
       <c r="K6" t="n">
-        <v>223345.288626608</v>
+        <v>222722.1594023241</v>
       </c>
       <c r="L6" t="n">
-        <v>223345.288626608</v>
+        <v>222722.1594023241</v>
       </c>
       <c r="M6" t="n">
-        <v>119933.1359772603</v>
+        <v>119224.7392330462</v>
       </c>
       <c r="N6" t="n">
-        <v>216266.959814119</v>
+        <v>215558.5630699046</v>
       </c>
       <c r="O6" t="n">
-        <v>216266.9598141188</v>
+        <v>215558.5630699046</v>
       </c>
       <c r="P6" t="n">
-        <v>216266.959814119</v>
+        <v>215558.5630699046</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.1592534165951</v>
+        <v>531.159253416595</v>
       </c>
       <c r="F3" t="n">
         <v>531.159253416595</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221045</v>
       </c>
       <c r="F4" t="n">
         <v>446.7623813221046</v>
@@ -26807,22 +26807,22 @@
         <v>446.7623813221047</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="I4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="J4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="K4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="L4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221051</v>
       </c>
       <c r="N4" t="n">
         <v>446.7623813221048</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.1592534165951</v>
+        <v>531.159253416595</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260534</v>
+        <v>60.1962594426052</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I11" t="n">
-        <v>82.32167685364135</v>
+        <v>82.32167685364134</v>
       </c>
       <c r="J11" t="n">
-        <v>181.2320710941377</v>
+        <v>181.2320710941376</v>
       </c>
       <c r="K11" t="n">
         <v>271.6198950021757</v>
@@ -31770,31 +31770,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9423809305998</v>
+        <v>374.9423809305997</v>
       </c>
       <c r="N11" t="n">
-        <v>381.0093406442477</v>
+        <v>381.0093406442476</v>
       </c>
       <c r="O11" t="n">
-        <v>359.7763162174687</v>
+        <v>359.7763162174686</v>
       </c>
       <c r="P11" t="n">
-        <v>307.0607621723544</v>
+        <v>307.0607621723543</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.5898445322265</v>
+        <v>230.5898445322264</v>
       </c>
       <c r="R11" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S11" t="n">
-        <v>48.65845824012327</v>
+        <v>48.65845824012326</v>
       </c>
       <c r="T11" t="n">
-        <v>9.347335203341284</v>
+        <v>9.347335203341283</v>
       </c>
       <c r="U11" t="n">
-        <v>0.17082508652594</v>
+        <v>0.1708250865259399</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H12" t="n">
-        <v>11.03408184927682</v>
+        <v>11.03408184927681</v>
       </c>
       <c r="I12" t="n">
         <v>39.33585037094596</v>
@@ -31843,37 +31843,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K12" t="n">
-        <v>184.4876437079131</v>
+        <v>184.487643707913</v>
       </c>
       <c r="L12" t="n">
-        <v>248.0664041546089</v>
+        <v>248.0664041546088</v>
       </c>
       <c r="M12" t="n">
-        <v>289.4817931120443</v>
+        <v>289.4817931120442</v>
       </c>
       <c r="N12" t="n">
-        <v>297.1435147957611</v>
+        <v>297.143514795761</v>
       </c>
       <c r="O12" t="n">
-        <v>271.828264340472</v>
+        <v>271.8282643404719</v>
       </c>
       <c r="P12" t="n">
-        <v>218.166146936337</v>
+        <v>218.1661469363369</v>
       </c>
       <c r="Q12" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R12" t="n">
-        <v>70.93481501288041</v>
+        <v>70.93481501288039</v>
       </c>
       <c r="S12" t="n">
-        <v>21.22131545489886</v>
+        <v>21.22131545489885</v>
       </c>
       <c r="T12" t="n">
-        <v>4.605050508394818</v>
+        <v>4.605050508394817</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07516404529480122</v>
+        <v>0.07516404529480121</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.957828161898778</v>
+        <v>0.9578281618987777</v>
       </c>
       <c r="H13" t="n">
-        <v>8.515963112154596</v>
+        <v>8.515963112154594</v>
       </c>
       <c r="I13" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J13" t="n">
-        <v>67.7184510462436</v>
+        <v>67.71845104624359</v>
       </c>
       <c r="K13" t="n">
         <v>111.2822173551489</v>
@@ -31940,19 +31940,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.20504726590586</v>
+        <v>80.20504726590585</v>
       </c>
       <c r="R13" t="n">
-        <v>43.06743717046686</v>
+        <v>43.06743717046685</v>
       </c>
       <c r="S13" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T13" t="n">
-        <v>4.092538509931141</v>
+        <v>4.09253850993114</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05224517246720613</v>
+        <v>0.05224517246720612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K11" t="n">
-        <v>182.4835053289586</v>
+        <v>182.4835053289585</v>
       </c>
       <c r="L11" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M11" t="n">
-        <v>281.6521564735544</v>
+        <v>281.6521564735543</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0970498876284</v>
+        <v>288.0970498876283</v>
       </c>
       <c r="O11" t="n">
-        <v>266.5865405916856</v>
+        <v>266.5865405916855</v>
       </c>
       <c r="P11" t="n">
         <v>213.4113988914702</v>
@@ -35433,7 +35433,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R11" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>302.7010421641655</v>
+        <v>56.57134117968749</v>
       </c>
       <c r="K12" t="n">
-        <v>128.6618609232977</v>
+        <v>310.7335804110768</v>
       </c>
       <c r="L12" t="n">
-        <v>191.9518803437599</v>
+        <v>446.7623813221045</v>
       </c>
       <c r="M12" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>243.9501214020111</v>
+        <v>243.950121402011</v>
       </c>
       <c r="O12" t="n">
-        <v>404.8293048221191</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.14567311248757</v>
+        <v>89.14567311248754</v>
       </c>
       <c r="R12" t="n">
-        <v>11.934615907475</v>
+        <v>11.93461590747498</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,16 +35570,16 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K13" t="n">
-        <v>59.03184779608208</v>
+        <v>59.03184779608206</v>
       </c>
       <c r="L13" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>260.6769889905293</v>
+        <v>260.676988990528</v>
       </c>
       <c r="N13" t="n">
-        <v>94.86118584832728</v>
+        <v>94.86118584832725</v>
       </c>
       <c r="O13" t="n">
         <v>397.5670915932262</v>
@@ -35728,7 +35728,7 @@
         <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
-        <v>300.6196354999602</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L15" t="n">
         <v>191.9518803437598</v>
@@ -35746,10 +35746,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R15" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328817</v>
       </c>
       <c r="K16" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608206</v>
       </c>
       <c r="L16" t="n">
-        <v>404.9252486033274</v>
+        <v>217.0749752259667</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8459686747746</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N16" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O16" t="n">
         <v>397.5670915932262</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J18" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
         <v>128.6618609232977</v>
@@ -35983,7 +35983,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>437.1695941069137</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R18" t="n">
         <v>100.7929153791732</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K19" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L19" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
         <v>442.3298337384635</v>
@@ -36056,10 +36056,10 @@
         <v>94.86118584832728</v>
       </c>
       <c r="O19" t="n">
-        <v>390.3589754115998</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>251.838588459894</v>
       </c>
       <c r="Q19" t="n">
         <v>146.3949763593511</v>
@@ -36141,7 +36141,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q20" t="n">
-        <v>140.5560401330746</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R20" t="n">
         <v>46.82024895384008</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J21" t="n">
         <v>302.7010421641655</v>
@@ -36205,7 +36205,7 @@
         <v>128.6618609232977</v>
       </c>
       <c r="L21" t="n">
-        <v>382.7043998254063</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M21" t="n">
         <v>231.9175093736268</v>
@@ -36220,7 +36220,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248757</v>
+        <v>261.1034476891509</v>
       </c>
       <c r="R21" t="n">
         <v>11.934615907475</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K22" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L22" t="n">
-        <v>208.1159697659577</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M22" t="n">
         <v>442.3298337384635</v>
@@ -36293,7 +36293,7 @@
         <v>94.86118584832728</v>
       </c>
       <c r="O22" t="n">
-        <v>397.5670915932262</v>
+        <v>135.0998696939008</v>
       </c>
       <c r="P22" t="n">
         <v>323.5979323663882</v>
@@ -36378,10 +36378,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.9089058048045</v>
+        <v>250.6304542127426</v>
       </c>
       <c r="R23" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J24" t="n">
-        <v>56.57134117968751</v>
+        <v>214.0825172804825</v>
       </c>
       <c r="K24" t="n">
         <v>128.6618609232977</v>
@@ -36448,19 +36448,19 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N24" t="n">
-        <v>283.2512232844509</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O24" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P24" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.14567311248757</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R24" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K25" t="n">
-        <v>59.03184779608208</v>
+        <v>237.083894843823</v>
       </c>
       <c r="L25" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M25" t="n">
-        <v>163.6416713818698</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N25" t="n">
         <v>430.2493691287167</v>
@@ -36533,10 +36533,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q25" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289586</v>
@@ -36612,7 +36612,7 @@
         <v>266.5865405916856</v>
       </c>
       <c r="P26" t="n">
-        <v>451.7642645632003</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q26" t="n">
         <v>140.5560401330744</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
         <v>128.6618609232977</v>
@@ -36688,13 +36688,13 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O27" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
-        <v>457.4014431754511</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.14567311248757</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R27" t="n">
         <v>100.7929153791732</v>
@@ -36758,7 +36758,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L28" t="n">
-        <v>126.2370862467337</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
         <v>442.3298337384635</v>
@@ -36770,10 +36770,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.3949763593511</v>
+        <v>131.2396255917651</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404981</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289586</v>
@@ -36849,13 +36849,13 @@
         <v>266.5865405916856</v>
       </c>
       <c r="P29" t="n">
-        <v>451.7642645632003</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q29" t="n">
         <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
         <v>128.6618609232977</v>
@@ -36925,13 +36925,13 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O30" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P30" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>382.6406043544055</v>
+        <v>410.598013889182</v>
       </c>
       <c r="R30" t="n">
         <v>100.7929153791732</v>
@@ -36992,7 +36992,7 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033274</v>
@@ -37001,10 +37001,10 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N31" t="n">
-        <v>430.2493691287167</v>
+        <v>261.4547076135633</v>
       </c>
       <c r="O31" t="n">
-        <v>118.8789292366324</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P31" t="n">
         <v>323.5979323663882</v>
@@ -37071,10 +37071,10 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K32" t="n">
-        <v>182.4835053289586</v>
+        <v>420.8363710006887</v>
       </c>
       <c r="L32" t="n">
-        <v>479.8359656331641</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M32" t="n">
         <v>281.6521564735544</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232977</v>
@@ -37156,22 +37156,22 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M33" t="n">
-        <v>506.9586407647101</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N33" t="n">
         <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.4577724350206</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R33" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,22 +37232,22 @@
         <v>267.3956797008439</v>
       </c>
       <c r="L34" t="n">
-        <v>404.9252486033274</v>
+        <v>308.9555206843506</v>
       </c>
       <c r="M34" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N34" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9659554271084</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q34" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.5560401330737</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895384008</v>
+        <v>46.8202489538418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
-        <v>238.6430606674666</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L36" t="n">
-        <v>446.7623813221045</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M36" t="n">
-        <v>231.9175093736268</v>
+        <v>417.3193889531361</v>
       </c>
       <c r="N36" t="n">
         <v>243.9501214020111</v>
       </c>
       <c r="O36" t="n">
-        <v>214.076785340472</v>
+        <v>446.7623813221051</v>
       </c>
       <c r="P36" t="n">
         <v>163.9065119335332</v>
@@ -37466,22 +37466,22 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K37" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L37" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M37" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N37" t="n">
-        <v>430.2493691287167</v>
+        <v>405.9104024129049</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P37" t="n">
-        <v>220.6657054952568</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q37" t="n">
         <v>146.3949763593511</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K39" t="n">
         <v>128.6618609232977</v>
@@ -37633,19 +37633,19 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7623813221048</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O39" t="n">
-        <v>446.7623813221048</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P39" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R39" t="n">
-        <v>13.31898047187334</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K40" t="n">
-        <v>267.3956797008439</v>
+        <v>122.6742487658805</v>
       </c>
       <c r="L40" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M40" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N40" t="n">
-        <v>371.5527000370715</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q40" t="n">
         <v>146.3949763593511</v>
@@ -37791,7 +37791,7 @@
         <v>281.6521564735544</v>
       </c>
       <c r="N41" t="n">
-        <v>288.0970498876284</v>
+        <v>288.097049887628</v>
       </c>
       <c r="O41" t="n">
         <v>266.5865405916856</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>56.57134117968751</v>
+        <v>135.8368534361949</v>
       </c>
       <c r="K42" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L42" t="n">
-        <v>446.7623813221047</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M42" t="n">
         <v>231.9175093736268</v>
@@ -37876,10 +37876,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P42" t="n">
-        <v>327.1834865163289</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.14567311248757</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="R42" t="n">
         <v>11.934615907475</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K43" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L43" t="n">
-        <v>404.9252486033274</v>
+        <v>217.0749752259671</v>
       </c>
       <c r="M43" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N43" t="n">
-        <v>286.634653530841</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O43" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
         <v>60.06512077738009</v>
@@ -38040,7 +38040,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R44" t="n">
-        <v>46.82024895383996</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J45" t="n">
         <v>302.7010421641655</v>
@@ -38101,7 +38101,7 @@
         <v>128.6618609232977</v>
       </c>
       <c r="L45" t="n">
-        <v>382.704399825406</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M45" t="n">
         <v>231.9175093736268</v>
@@ -38116,10 +38116,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R45" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K46" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L46" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M46" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N46" t="n">
-        <v>94.86118584832728</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O46" t="n">
-        <v>271.0832265295375</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
         <v>60.06512077738009</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.3949763593511</v>
+        <v>67.33148848634346</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
